--- a/CHIOMA V DIKENNA Customer Service Forecast - Group 3.xlsx
+++ b/CHIOMA V DIKENNA Customer Service Forecast - Group 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Service" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295598720"/>
-        <c:axId val="301207936"/>
+        <c:axId val="141965952"/>
+        <c:axId val="141971840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295598720"/>
+        <c:axId val="141965952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301207936"/>
+        <c:crossAx val="141971840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301207936"/>
+        <c:axId val="141971840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295598720"/>
+        <c:crossAx val="141965952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,11 +2503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301245568"/>
-        <c:axId val="301247104"/>
+        <c:axId val="142001280"/>
+        <c:axId val="142002816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301245568"/>
+        <c:axId val="142001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301247104"/>
+        <c:crossAx val="142002816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2524,7 +2524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301247104"/>
+        <c:axId val="142002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,13 +2535,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301245568"/>
+        <c:crossAx val="142001280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3562,11 +3563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="300976768"/>
-        <c:axId val="301072768"/>
+        <c:axId val="142731904"/>
+        <c:axId val="142733696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300976768"/>
+        <c:axId val="142731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301072768"/>
+        <c:crossAx val="142733696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3583,7 +3584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301072768"/>
+        <c:axId val="142733696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,7 +3595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300976768"/>
+        <c:crossAx val="142731904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3645,6 +3646,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4321,11 +4323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301122688"/>
-        <c:axId val="301124608"/>
+        <c:axId val="141788288"/>
+        <c:axId val="141790208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301122688"/>
+        <c:axId val="141788288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,12 +4349,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301124608"/>
+        <c:crossAx val="141790208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4360,7 +4363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301124608"/>
+        <c:axId val="141790208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,19 +4385,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301122688"/>
+        <c:crossAx val="141788288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7013,11 +7018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301167360"/>
-        <c:axId val="301168896"/>
+        <c:axId val="142695424"/>
+        <c:axId val="142951168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301167360"/>
+        <c:axId val="142695424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7026,7 +7031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301168896"/>
+        <c:crossAx val="142951168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7034,7 +7039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301168896"/>
+        <c:axId val="142951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7045,7 +7050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301167360"/>
+        <c:crossAx val="142695424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7756,11 +7761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301197184"/>
-        <c:axId val="301198720"/>
+        <c:axId val="142983552"/>
+        <c:axId val="142985088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301197184"/>
+        <c:axId val="142983552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7769,7 +7774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301198720"/>
+        <c:crossAx val="142985088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7777,7 +7782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301198720"/>
+        <c:axId val="142985088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7788,7 +7793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301197184"/>
+        <c:crossAx val="142983552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9163,11 +9168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301904256"/>
-        <c:axId val="301905792"/>
+        <c:axId val="142883456"/>
+        <c:axId val="142901632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301904256"/>
+        <c:axId val="142883456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9176,7 +9181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301905792"/>
+        <c:crossAx val="142901632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9184,7 +9189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301905792"/>
+        <c:axId val="142901632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9195,7 +9200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="301904256"/>
+        <c:crossAx val="142883456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11217,11 +11222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302201472"/>
-        <c:axId val="302207360"/>
+        <c:axId val="142922880"/>
+        <c:axId val="142924416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302201472"/>
+        <c:axId val="142922880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11230,7 +11235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302207360"/>
+        <c:crossAx val="142924416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11238,7 +11243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302207360"/>
+        <c:axId val="142924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11249,7 +11254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302201472"/>
+        <c:crossAx val="142922880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11820,7 +11825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16303,8 +16308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L12"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19567,7 +19572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
@@ -28876,7 +28881,7 @@
         <v>7</v>
       </c>
       <c r="Q100" s="9">
-        <f t="shared" ref="Q100:Q131" si="22">AVERAGEIF($C$2:$C$105,P100,$D$2:$D$105)</f>
+        <f t="shared" ref="Q100:Q107" si="22">AVERAGEIF($C$2:$C$105,P100,$D$2:$D$105)</f>
         <v>1719</v>
       </c>
       <c r="R100" s="8">
@@ -29233,7 +29238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
